--- a/Contract.xlsx
+++ b/Contract.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus20\Documents\GitHub\pratyusha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A60D82-8344-4358-B00D-8C0D9E5AE327}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4E122A-8A00-458F-A2B7-B21A0A8DDBE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -629,7 +629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>

--- a/Contract.xlsx
+++ b/Contract.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus20\Documents\GitHub\pratyusha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4E122A-8A00-458F-A2B7-B21A0A8DDBE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4186BA09-7723-4FBF-90CC-51D83509FA70}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="79">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -325,7 +325,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J44" totalsRowShown="0">
-  <autoFilter ref="A1:J44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <autoFilter ref="A1:J44" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Step 1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TestCaseID"/>
@@ -629,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,7 +711,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>17</v>
       </c>
@@ -719,7 +725,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>21</v>
       </c>
@@ -733,7 +739,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>25</v>
       </c>
@@ -747,7 +753,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>29</v>
       </c>
@@ -761,7 +767,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>33</v>
       </c>
@@ -772,7 +778,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>36</v>
       </c>
@@ -783,7 +789,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>39</v>
       </c>
@@ -794,7 +800,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>42</v>
       </c>
@@ -805,7 +811,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>45</v>
       </c>
@@ -816,7 +822,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>48</v>
       </c>
@@ -853,7 +859,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>17</v>
       </c>
@@ -867,7 +873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>21</v>
       </c>
@@ -881,7 +887,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>25</v>
       </c>
@@ -895,7 +901,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>29</v>
       </c>
@@ -909,7 +915,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>33</v>
       </c>
@@ -920,7 +926,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>36</v>
       </c>
@@ -931,7 +937,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>39</v>
       </c>
@@ -968,7 +974,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>18</v>
       </c>
@@ -1005,7 +1011,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>17</v>
       </c>
@@ -1019,7 +1025,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>21</v>
       </c>
@@ -1033,7 +1039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>25</v>
       </c>
@@ -1047,7 +1053,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>29</v>
       </c>
@@ -1061,7 +1067,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
         <v>33</v>
       </c>
@@ -1072,7 +1078,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
         <v>36</v>
       </c>
@@ -1083,7 +1089,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>39</v>
       </c>
@@ -1094,7 +1100,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
         <v>42</v>
       </c>
@@ -1105,7 +1111,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
         <v>45</v>
       </c>
@@ -1116,7 +1122,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
         <v>48</v>
       </c>
@@ -1153,7 +1159,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>17</v>
       </c>
@@ -1167,7 +1173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>21</v>
       </c>
@@ -1181,7 +1187,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>25</v>
       </c>
@@ -1195,7 +1201,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>29</v>
       </c>
@@ -1209,7 +1215,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
         <v>33</v>
       </c>
@@ -1220,7 +1226,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
         <v>36</v>
       </c>
@@ -1231,7 +1237,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
         <v>39</v>
       </c>
@@ -1264,8 +1270,11 @@
       <c r="H42" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
         <v>18</v>
       </c>
@@ -1276,7 +1285,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
         <v>22</v>
       </c>

--- a/Contract.xlsx
+++ b/Contract.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus20\Documents\GitHub\pratyusha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71BB754-BD02-4635-A572-31A8AE7D9584}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C265B947-DD3D-4D86-B306-70DD694346C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3705" yWindow="2880" windowWidth="18000" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -325,13 +325,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J87" totalsRowShown="0">
-  <autoFilter ref="A1:J87" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Step 1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J87" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TestCaseID"/>
@@ -635,7 +629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
@@ -711,7 +705,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>17</v>
       </c>
@@ -725,7 +719,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>21</v>
       </c>
@@ -739,7 +733,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>25</v>
       </c>
@@ -753,7 +747,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>29</v>
       </c>
@@ -767,7 +761,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>33</v>
       </c>
@@ -778,7 +772,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>36</v>
       </c>
@@ -789,7 +783,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>39</v>
       </c>
@@ -800,7 +794,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>42</v>
       </c>
@@ -811,7 +805,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>45</v>
       </c>
@@ -822,7 +816,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>48</v>
       </c>
@@ -859,7 +853,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>17</v>
       </c>
@@ -873,7 +867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>21</v>
       </c>
@@ -887,7 +881,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>25</v>
       </c>
@@ -901,7 +895,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>29</v>
       </c>
@@ -915,7 +909,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>33</v>
       </c>
@@ -926,7 +920,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>36</v>
       </c>
@@ -937,7 +931,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>39</v>
       </c>
@@ -974,7 +968,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>18</v>
       </c>
@@ -1011,7 +1005,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>17</v>
       </c>
@@ -1025,7 +1019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>21</v>
       </c>
@@ -1039,7 +1033,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>25</v>
       </c>
@@ -1053,7 +1047,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>29</v>
       </c>
@@ -1067,7 +1061,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
         <v>33</v>
       </c>
@@ -1078,7 +1072,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
         <v>36</v>
       </c>
@@ -1089,7 +1083,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>39</v>
       </c>
@@ -1100,7 +1094,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
         <v>42</v>
       </c>
@@ -1111,7 +1105,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
         <v>45</v>
       </c>
@@ -1122,7 +1116,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
         <v>48</v>
       </c>
@@ -1159,7 +1153,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>17</v>
       </c>
@@ -1173,7 +1167,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>21</v>
       </c>
@@ -1187,7 +1181,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>25</v>
       </c>
@@ -1201,7 +1195,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>29</v>
       </c>
@@ -1215,7 +1209,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
         <v>33</v>
       </c>
@@ -1226,7 +1220,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
         <v>36</v>
       </c>
@@ -1237,7 +1231,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
         <v>39</v>
       </c>
@@ -1274,7 +1268,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
         <v>18</v>
       </c>
@@ -1285,7 +1279,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
         <v>22</v>
       </c>
@@ -1322,7 +1316,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>17</v>
       </c>
@@ -1336,7 +1330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
         <v>21</v>
       </c>
@@ -1350,7 +1344,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>25</v>
       </c>
@@ -1364,7 +1358,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
         <v>29</v>
       </c>
@@ -1378,7 +1372,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F50" t="s">
         <v>33</v>
       </c>
@@ -1389,7 +1383,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F51" t="s">
         <v>36</v>
       </c>
@@ -1400,7 +1394,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F52" t="s">
         <v>39</v>
       </c>
@@ -1411,7 +1405,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F53" t="s">
         <v>42</v>
       </c>
@@ -1422,7 +1416,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
         <v>45</v>
       </c>
@@ -1433,7 +1427,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F55" t="s">
         <v>48</v>
       </c>
@@ -1470,7 +1464,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
         <v>17</v>
       </c>
@@ -1484,7 +1478,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
         <v>21</v>
       </c>
@@ -1498,7 +1492,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
         <v>25</v>
       </c>
@@ -1512,7 +1506,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
         <v>29</v>
       </c>
@@ -1526,7 +1520,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F61" t="s">
         <v>33</v>
       </c>
@@ -1537,7 +1531,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F62" t="s">
         <v>36</v>
       </c>
@@ -1548,7 +1542,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F63" t="s">
         <v>39</v>
       </c>
@@ -1585,7 +1579,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F65" t="s">
         <v>18</v>
       </c>
@@ -1622,7 +1616,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
         <v>17</v>
       </c>
@@ -1636,7 +1630,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
         <v>21</v>
       </c>
@@ -1650,7 +1644,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
         <v>25</v>
       </c>
@@ -1664,7 +1658,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
         <v>29</v>
       </c>
@@ -1678,7 +1672,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F71" t="s">
         <v>33</v>
       </c>
@@ -1689,7 +1683,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F72" t="s">
         <v>36</v>
       </c>
@@ -1700,7 +1694,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F73" t="s">
         <v>39</v>
       </c>
@@ -1711,7 +1705,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F74" t="s">
         <v>42</v>
       </c>
@@ -1722,7 +1716,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F75" t="s">
         <v>45</v>
       </c>
@@ -1733,7 +1727,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F76" t="s">
         <v>48</v>
       </c>
@@ -1770,7 +1764,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
         <v>17</v>
       </c>
@@ -1784,7 +1778,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
         <v>21</v>
       </c>
@@ -1798,7 +1792,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E80" t="s">
         <v>25</v>
       </c>
@@ -1812,7 +1806,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
         <v>29</v>
       </c>
@@ -1826,7 +1820,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F82" t="s">
         <v>33</v>
       </c>
@@ -1837,7 +1831,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F83" t="s">
         <v>36</v>
       </c>
@@ -1848,7 +1842,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F84" t="s">
         <v>39</v>
       </c>
@@ -1882,7 +1876,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F86" t="s">
         <v>18</v>
       </c>
@@ -1893,7 +1887,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F87" t="s">
         <v>22</v>
       </c>

--- a/Contract.xlsx
+++ b/Contract.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus20\Documents\GitHub\pratyusha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C265B947-DD3D-4D86-B306-70DD694346C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175F8E1A-1A42-4FF0-B535-EED29570F445}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3705" yWindow="2880" windowWidth="18000" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="79">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -629,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I85" sqref="I85"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1806,7 +1806,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
         <v>29</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F82" t="s">
         <v>33</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F83" t="s">
         <v>36</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F84" t="s">
         <v>39</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>70</v>
       </c>
@@ -1875,8 +1875,11 @@
       <c r="H85" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F86" t="s">
         <v>18</v>
       </c>
@@ -1887,7 +1890,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F87" t="s">
         <v>22</v>
       </c>

--- a/Contract.xlsx
+++ b/Contract.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus20\Documents\GitHub\pratyusha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B5029E-B8ED-4927-9E2D-13F873E47E38}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C79268-4982-4344-A05F-5A6306C95790}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="2880" windowWidth="18000" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="1380" windowWidth="18000" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test-Cases" sheetId="2" r:id="rId1"/>
@@ -629,7 +629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H79" workbookViewId="0">
       <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>

--- a/Contract.xlsx
+++ b/Contract.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus20\Documents\GitHub\pratyusha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C79268-4982-4344-A05F-5A6306C95790}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37604F51-DFC1-40F5-A883-274BD2805265}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3465" yWindow="1380" windowWidth="18000" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -629,7 +629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H79" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H37" workbookViewId="0">
       <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>

--- a/Contract.xlsx
+++ b/Contract.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus20\Documents\GitHub\pratyusha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37604F51-DFC1-40F5-A883-274BD2805265}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5217E126-8FB0-4E36-831B-0B44190D325A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3465" yWindow="1380" windowWidth="18000" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Contract.xlsx
+++ b/Contract.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus20\Documents\GitHub\pratyusha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5217E126-8FB0-4E36-831B-0B44190D325A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D593138-35DD-47A6-A6EC-041272D90379}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3465" yWindow="1380" windowWidth="18000" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -629,7 +629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
